--- a/NPB3.3.1/NPB3.3-MPI/Results/Eth/mpi_eth.xlsx
+++ b/NPB3.3.1/NPB3.3-MPI/Results/Eth/mpi_eth.xlsx
@@ -9,18 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="641" sheetId="1" r:id="rId1"/>
+    <sheet name="Ganhos Sequencial vs MPI" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="gnu_nodo_641_16" localSheetId="0">Sheet1!$B$15:$F$24</definedName>
-    <definedName name="gnu_nodo_641_32" localSheetId="0">Sheet1!$B$27:$F$36</definedName>
-    <definedName name="gnu_nodo_641_8" localSheetId="0">Sheet1!$B$3:$F$12</definedName>
-    <definedName name="intel_nodo_641_16" localSheetId="0">Sheet1!$H$15:$L$24</definedName>
-    <definedName name="intel_nodo_641_32" localSheetId="0">Sheet1!$H$27:$L$36</definedName>
-    <definedName name="intel_nodo_641_8" localSheetId="0">Sheet1!$H$3:$L$12</definedName>
+    <definedName name="gnu_nodo_641_16" localSheetId="0">'641'!$B$15:$F$24</definedName>
+    <definedName name="gnu_nodo_641_32" localSheetId="0">'641'!$B$27:$F$36</definedName>
+    <definedName name="gnu_nodo_641_8" localSheetId="0">'641'!$B$3:$F$12</definedName>
+    <definedName name="intel_nodo_641_16" localSheetId="0">'641'!$H$15:$L$24</definedName>
+    <definedName name="intel_nodo_641_16" localSheetId="1">'Ganhos Sequencial vs MPI'!$B$17:$F$26</definedName>
+    <definedName name="intel_nodo_641_32" localSheetId="0">'641'!$H$27:$L$36</definedName>
+    <definedName name="intel_nodo_641_32" localSheetId="1">'Ganhos Sequencial vs MPI'!$B$29:$F$38</definedName>
+    <definedName name="intel_nodo_641_8" localSheetId="0">'641'!$H$3:$L$12</definedName>
+    <definedName name="intel_nodo_641_8" localSheetId="1">'Ganhos Sequencial vs MPI'!$B$5:$F$14</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -77,7 +81,18 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="intel-nodo_641_32" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="5" name="intel-nodo_641_161" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-MPI/Results/Eth/intel/16/nodo-641/TXT/intel-nodo_641_16.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="intel-nodo_641_32" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10000" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-MPI/Results/Eth/intel/32/nodo-641/TXT/intel-nodo_641_32.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -88,7 +103,29 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="intel-nodo_641_8" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="7" name="intel-nodo_641_321" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-MPI/Results/Eth/intel/32/nodo-641/TXT/intel-nodo_641_32.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="intel-nodo_641_8" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-MPI/Results/Eth/intel/8/nodo-641/TXT/intel-nodo_641_8.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="intel-nodo_641_81" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10000" sourceFile="/Users/Sergio/Desktop/Sergio/LEI/4Ano/CPD/2Semestre/ESC/TP1/ESC_TP1/NPB3.3.1/NPB3.3-MPI/Results/Eth/intel/8/nodo-641/TXT/intel-nodo_641_8.csv" comma="1">
       <textFields count="5">
         <textField/>
@@ -103,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="22">
   <si>
     <t>Processos</t>
   </si>
@@ -164,12 +201,25 @@
   <si>
     <t>IS C</t>
   </si>
+  <si>
+    <t>Tempo Seq</t>
+  </si>
+  <si>
+    <t>Ganho</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,32 +305,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -373,7 +428,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'641'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -417,7 +472,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -452,7 +507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$12</c:f>
+              <c:f>'641'!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -492,7 +547,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>'641'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -536,7 +591,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -571,7 +626,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$12</c:f>
+              <c:f>'641'!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -611,7 +666,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
+              <c:f>'641'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -655,7 +710,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -690,7 +745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$24</c:f>
+              <c:f>'641'!$D$16:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -730,7 +785,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$14</c:f>
+              <c:f>'641'!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -774,7 +829,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -809,7 +864,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$16:$J$24</c:f>
+              <c:f>'641'!$J$16:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -849,7 +904,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
+              <c:f>'641'!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -893,7 +948,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -928,7 +983,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$28:$D$36</c:f>
+              <c:f>'641'!$D$28:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -968,7 +1023,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$26</c:f>
+              <c:f>'641'!$H$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1012,7 +1067,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1047,7 +1102,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$28:$J$36</c:f>
+              <c:f>'641'!$J$28:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1456,7 +1511,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'641'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1500,7 +1555,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1535,7 +1590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$12</c:f>
+              <c:f>'641'!$E$4:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1575,7 +1630,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>'641'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1619,7 +1674,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1654,7 +1709,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$12</c:f>
+              <c:f>'641'!$K$4:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1694,7 +1749,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
+              <c:f>'641'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1738,7 +1793,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1773,7 +1828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$E$24</c:f>
+              <c:f>'641'!$E$16:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1813,7 +1868,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$14</c:f>
+              <c:f>'641'!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1857,7 +1912,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1892,7 +1947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$16:$K$24</c:f>
+              <c:f>'641'!$K$16:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1932,7 +1987,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
+              <c:f>'641'!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1976,7 +2031,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2011,7 +2066,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$28:$E$36</c:f>
+              <c:f>'641'!$E$28:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2051,7 +2106,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$26</c:f>
+              <c:f>'641'!$H$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2095,7 +2150,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$28:$H$36</c:f>
+              <c:f>'641'!$H$28:$H$36</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2130,7 +2185,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$28:$K$36</c:f>
+              <c:f>'641'!$K$28:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2382,7 +2437,1983 @@
         <c:crossAx val="-2139621504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.0"/>
+        <c:majorUnit val="1000.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MOPS/Processo para os</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Diferentes Compiladores para os Diferentes Numero de Processos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'641'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 Processos - gnu/openmpi_eth/1.8.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'641'!$H$28:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CG A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CG B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EP A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EP B </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EP C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'641'!$F$4:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1341.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>884.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>547.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'641'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 Processos - intel/openmpi_eth/1.8.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'641'!$H$28:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CG A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CG B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EP A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EP B </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EP C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'641'!$L$4:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1230.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>898.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>552.3099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'641'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Processos - GNU/openmpi_eth/1.8.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'641'!$H$28:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CG A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CG B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EP A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EP B </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EP C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'641'!$F$16:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1050.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>578.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>421.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'641'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Processos - intel/openmpi_eth/1.8.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'641'!$H$28:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CG A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CG B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EP A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EP B </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EP C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'641'!$L$16:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1011.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>573.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>417.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'641'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Processos - GNU/openmpi_eth/1.8.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'641'!$H$28:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CG A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CG B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EP A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EP B </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EP C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'641'!$F$28:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'641'!$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Processos - intel/openmpi_eth/1.8.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'641'!$H$28:$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CG A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CG B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EP A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EP B </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EP C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'641'!$L$28:$L$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-2098065056"/>
+        <c:axId val="-2109044224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2098065056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kernel's para as</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Diferentes Classes de Dados para 8, 16 e 32 Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109044224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2109044224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1400.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MOPS/Processo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2098065056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentagem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de Ganho entre a Vers</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t>ão Sequencial e a Versão MPI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ganhos Sequencial vs MPI'!$B$4:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 Processos - intel/openmpi_eth/1.8.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ganhos Sequencial vs MPI'!$B$30:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CG A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CG B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EP A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EP B </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EP C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ganhos Sequencial vs MPI'!$F$6:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0473061760841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0693588162762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.746543778801843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.666475972540045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.696428571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.310344827586208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ganhos Sequencial vs MPI'!$B$16:$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Processos - intel/openmpi_eth/1.8.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ganhos Sequencial vs MPI'!$B$30:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CG A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CG B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EP A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EP B </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EP C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ganhos Sequencial vs MPI'!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.93624161073826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.72248134328358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.39442231075697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.40344827586207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.02941176470588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.38255033557047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ganhos Sequencial vs MPI'!$B$28:$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32 Processos - intel/openmpi_eth/1.8.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ganhos Sequencial vs MPI'!$B$30:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CG A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CG B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CG C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EP A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EP B </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EP C</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IS A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>IS B</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IS C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ganhos Sequencial vs MPI'!$F$30:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.781132075471698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.909635274904736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.685217391304347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.61739130434783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.70277410832232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.690972222222222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.122754491017964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.111926605504587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-2104268320"/>
+        <c:axId val="-2121314816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2104268320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kernel's para as Diferentes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Classes de Dados para 8, 16 e 32 Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2121314816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2121314816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ganho %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104268320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2538,6 +4569,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -3008,6 +5119,944 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3540,11 +6589,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel-nodo_641_32" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel-nodo_641_32" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3552,7 +6668,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel-nodo_641_8" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel-nodo_641_8" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3565,6 +6681,18 @@
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gnu-nodo_641_8" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel-nodo_641_8" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel-nodo_641_16" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel-nodo_641_32" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3832,8 +6960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I27" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4870,4 +7998,592 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F6" s="7">
+        <f>(E6/D6)-1</f>
+        <v>6.7333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.61</v>
+      </c>
+      <c r="E7" s="1">
+        <v>106.9</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ref="F7:F14" si="0">(E7/D7)-1</f>
+        <v>13.047306176084099</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32.44</v>
+      </c>
+      <c r="E8" s="1">
+        <v>294.20999999999998</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>8.0693588162762016</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>6.7777777777777777</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.7465437788018434</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17.48</v>
+      </c>
+      <c r="E11" s="1">
+        <v>134.01</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6664759725400451</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>5.3571428571428568</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6964285714285712</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16.96</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3103448275862082</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F18" s="7">
+        <f>(E18/D18)-1</f>
+        <v>11.888888888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.96</v>
+      </c>
+      <c r="E19" s="1">
+        <v>106.9</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" ref="F19:F26" si="1">(E19/D19)-1</f>
+        <v>16.936241610738257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>21.44</v>
+      </c>
+      <c r="E20" s="1">
+        <v>294.20999999999998</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>12.722481343283579</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>12.394422310756973</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E23" s="1">
+        <v>134.01</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>14.403448275862068</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>10.125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>10.029411764705882</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="E26" s="1">
+        <v>16.96</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>10.382550335570471</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F30" s="7">
+        <f>(E30/D30)-1</f>
+        <v>-0.78113207547169816</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1">
+        <v>36.74</v>
+      </c>
+      <c r="E31" s="1">
+        <v>106.9</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" ref="F31:F38" si="2">(E31/D31)-1</f>
+        <v>1.9096352749047361</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1">
+        <v>51.75</v>
+      </c>
+      <c r="E32" s="1">
+        <v>294.20999999999998</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
+        <v>4.6852173913043478</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="2"/>
+        <v>9.7692307692307701</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E34" s="1">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="2"/>
+        <v>13.617391304347827</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7.57</v>
+      </c>
+      <c r="E35" s="1">
+        <v>134.01</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="2"/>
+        <v>16.702774108322323</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.69097222222222221</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1227544910179641</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="E38" s="1">
+        <v>16.96</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="2"/>
+        <v>2.1119266055045873</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B28:F28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>